--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D350AE7-FE3F-435A-85C7-8BE8BD86F85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BC38E8-0CBD-4B5A-A889-AD9BC14CEC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1020" yWindow="975" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>카페 14000달성 기념</t>
+  </si>
+  <si>
+    <t>복숭아 600개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/13 점검 추가 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -474,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,6 +680,23 @@
       </c>
       <c r="E11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BC38E8-0CBD-4B5A-A889-AD9BC14CEC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E44B56E-12FF-4D4D-BABD-FE6EB1CF1EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="975" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6585" yWindow="4035" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -113,11 +113,11 @@
     <t>카페 14000달성 기념</t>
   </si>
   <si>
-    <t>복숭아 600개</t>
+    <t>12/13 점검 추가 보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/13 점검 추가 보상</t>
+    <t>복숭아 1000개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +485,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,16 +687,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E44B56E-12FF-4D4D-BABD-FE6EB1CF1EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C3475C-9092-43FD-8A25-47947A41CD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="4035" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="945" yWindow="2595" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>복숭아 1000개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 1500개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 15000달성 기념</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -697,6 +705,23 @@
       </c>
       <c r="E12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1500</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C3475C-9092-43FD-8A25-47947A41CD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE771BC-F98A-4894-9C08-680D76C219F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2595" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6090" yWindow="3090" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>카페 15000달성 기념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/28 업데이트 추가보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -722,6 +726,23 @@
       </c>
       <c r="E13" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE771BC-F98A-4894-9C08-680D76C219F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FAADCD-CE00-4D46-9A24-E67B769322A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="3090" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>12/28 업데이트 추가보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 이벤트 연장 보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,6 +746,23 @@
         <v>1000</v>
       </c>
       <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FAADCD-CE00-4D46-9A24-E67B769322A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF96CEF-E924-443C-8EA9-6438046CD306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>크리스마스 이벤트 연장 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 16000달성 기념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/14 업데이트 지연보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,6 +772,40 @@
       </c>
       <c r="E15" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1500</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1500</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF96CEF-E924-443C-8EA9-6438046CD306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B5C716-F69B-4196-BDC0-2EE0411B0DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>01/14 업데이트 지연보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 17000달성 기념</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,6 +809,23 @@
         <v>1500</v>
       </c>
       <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>1500</v>
+      </c>
+      <c r="E18" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B5C716-F69B-4196-BDC0-2EE0411B0DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1360F-932E-414C-9F5E-E9FDC4207DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,14 @@
   </si>
   <si>
     <t>카페 17000달성 기념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 18000달성 기념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 2000개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,6 +835,23 @@
       </c>
       <c r="E18" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1360F-932E-414C-9F5E-E9FDC4207DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7448599-9510-4AC3-823F-F5BF2C5AF6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>복숭아 2000개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/29 업데이트 지연보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 3000개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -852,6 +860,23 @@
       </c>
       <c r="E19" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>3000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7448599-9510-4AC3-823F-F5BF2C5AF6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC80D51-14AE-4ACD-885A-27CEDF4418AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3555" yWindow="4440" windowWidth="31605" windowHeight="11490" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>복숭아 3000개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫픽스 추가보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,6 +880,23 @@
         <v>3000</v>
       </c>
       <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>3000</v>
+      </c>
+      <c r="E21" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC80D51-14AE-4ACD-885A-27CEDF4418AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E222D6-64F4-4B70-9439-17C9174E0C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="4440" windowWidth="31605" windowHeight="11490" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>핫픽스 추가보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 19000달성 기념</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -897,6 +901,23 @@
         <v>3000</v>
       </c>
       <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>3000</v>
+      </c>
+      <c r="E22" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E222D6-64F4-4B70-9439-17C9174E0C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FA0DEA-332C-46A4-A114-6D624DAA2832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>카페 19000달성 기념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 20000달성 기념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 5000개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -919,6 +927,23 @@
       </c>
       <c r="E22" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>5000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FA0DEA-332C-46A4-A114-6D624DAA2832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F09AB-7742-42FA-9732-0E67F3E2AC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t>복숭아 5000개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 21000달성 기념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 7000개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -944,6 +952,23 @@
       </c>
       <c r="E23" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>7000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F09AB-7742-42FA-9732-0E67F3E2AC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605C047-107B-4BE9-9F2C-52D7FE29C7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>복숭아 7000개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 10000개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 22000달성 기념</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -969,6 +977,23 @@
       </c>
       <c r="E24" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605C047-107B-4BE9-9F2C-52D7FE29C7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA65FD-E401-4671-877D-EEF5DFB0A01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,13 @@
   </si>
   <si>
     <t>카페 22000달성 기념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 23000달성 기념</t>
+  </si>
+  <si>
+    <t>검조각 20000개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -994,6 +1001,23 @@
       </c>
       <c r="E25" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>20000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
